--- a/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#proof_quality%short.xlsx
+++ b/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#proof_quality%short.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\СССР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B662360-41B6-4C96-83A8-63BE4C871485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="1210" yWindow="1460" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prooflike" sheetId="20" r:id="rId1"/>
     <sheet name="Links" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,9 +77,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -122,12 +123,15 @@
   </si>
   <si>
     <t>Cathedral of the Dormition in Moscow</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +357,7 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -415,7 +419,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Обзор всего-style" pivot="0" count="3">
+    <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
@@ -433,16 +437,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица43" displayName="Таблица43" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица43" displayName="Таблица43" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -710,74 +714,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" customWidth="1"/>
+    <col min="4" max="5" width="24.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8">
         <v>1990</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -790,15 +794,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8">
         <v>1990</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -811,15 +815,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8">
         <v>1991</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -891,48 +895,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#proof_quality%short.xlsx
+++ b/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#proof_quality%short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145CBBB0-F504-4FDA-8A92-323711AAA069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0581033A-40F4-468D-BFCE-6991767962BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Prooflike" sheetId="20" r:id="rId1"/>
     <sheet name="Links" sheetId="11" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prooflike!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{6849F073-2AE0-4210-B601-29762D74B57A}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{6849F073-2AE0-4210-B601-29762D74B57A}">
       <text>
         <r>
           <rPr>
@@ -52,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{67FFDEB6-CD16-47D1-BF3B-B17303834B57}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{67FFDEB6-CD16-47D1-BF3B-B17303834B57}">
       <text>
         <r>
           <rPr>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -83,12 +86,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>5рублей</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>100th Anniversary - Birth of Sergei Prokofiev</t>
   </si>
   <si>
-    <t>Face value</t>
-  </si>
-  <si>
     <t>1рубль</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>M&amp;SP</t>
+  </si>
+  <si>
+    <t>Subtype_1#Value</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -165,6 +165,8 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -294,7 +296,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +345,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -350,8 +358,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -360,15 +368,6 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -392,6 +391,15 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -444,9 +452,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -715,137 +723,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" customWidth="1"/>
-    <col min="4" max="5" width="24.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f t="shared" ref="G3:G4" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>1990</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1990</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11" t="str">
-        <f t="shared" ref="H3:H4" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1990</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11" t="str">
+      <c r="G4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>1991</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="1">
+      <c r="E5" s="10"/>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="str">
-        <f t="shared" ref="H5" si="1">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="G5" s="11" t="str">
+        <f t="shared" ref="G5" si="1">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -858,9 +857,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -873,9 +872,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -914,13 +913,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -928,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
